--- a/Cleaned_Data_COVID.xlsx
+++ b/Cleaned_Data_COVID.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="328">
   <si>
     <t>CUMULATIVE</t>
   </si>
@@ -265,304 +265,7 @@
     <t>Returnees from China</t>
   </si>
   <si>
-    <t>NEWS_NO</t>
-  </si>
-  <si>
-    <t>NEWS</t>
-  </si>
-  <si>
     <t>AGG NEWS</t>
-  </si>
-  <si>
-    <t>Updates: Pakistan:</t>
-  </si>
-  <si>
-    <t>Three new cases have been confirmed in the past 24 hours, bringing the tally to 19. •</t>
-  </si>
-  <si>
-    <t>Number of calls to passengers returning from Iraq: 144 •</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global:     </t>
-  </si>
-  <si>
-    <t>Total cases: 118,887,  Total Deaths: 4,290 •</t>
-  </si>
-  <si>
-    <t>Total affected countries: 109 including Turkey and Panama. •</t>
-  </si>
-  <si>
-    <t>One case confirmed from GB, bringing the total to 20.  •</t>
-  </si>
-  <si>
-    <t>Number of calls to passengers returning from Italy: 71 •</t>
-  </si>
-  <si>
-    <t>Total cases: 125,860, Total Deaths: 4,619 •</t>
-  </si>
-  <si>
-    <t>Total affected countries: 116 including Jordan and Congo   •</t>
-  </si>
-  <si>
-    <t>One case confirmed from Sindh, bringing the total to 21.  •</t>
-  </si>
-  <si>
-    <t>Number of calls to passengers returning from Italy: 40 •</t>
-  </si>
-  <si>
-    <t>Total cases: 133,138, Total Deaths: 4,983 •</t>
-  </si>
-  <si>
-    <t>Total affected countries: 116 including Guyana  •</t>
-  </si>
-  <si>
-    <t>7 new cases confirmed, bringing the tally to 28 •</t>
-  </si>
-  <si>
-    <t>National Health Emergency declared •</t>
-  </si>
-  <si>
-    <t>Total cases: 144,633, Total Deaths: 5,438 •</t>
-  </si>
-  <si>
-    <t>Total affected countries: 132 including Kenya and Sudan   •</t>
-  </si>
-  <si>
-    <t>3 new cases confirmed, bringing the tally to 31. •</t>
-  </si>
-  <si>
-    <t>All public gatherings, conferences and events banned till 5th April, 2020. •</t>
-  </si>
-  <si>
-    <t>Total cases:154,661, Total Deaths: 5,813 •</t>
-  </si>
-  <si>
-    <t>Total affected countries: 137 including Curacao and Suriname  •</t>
-  </si>
-  <si>
-    <t>22 new cases confirmed, bringing the tally to 53. •</t>
-  </si>
-  <si>
-    <t>Total cases:165,719, Total Deaths: 6,480 •</t>
-  </si>
-  <si>
-    <t>Total affected countries: 142 including Uzbekistan and Seychelles  •</t>
-  </si>
-  <si>
-    <t>134 new cases confirmed, bringing the tally to 187 •</t>
-  </si>
-  <si>
-    <t>Calls to passengers from Italy: 207 •</t>
-  </si>
-  <si>
-    <t>Total cases:182,405, Total Deaths: 7,154 •</t>
-  </si>
-  <si>
-    <t>Total affected countries: 150 including Greenland  •</t>
-  </si>
-  <si>
-    <t>54 new cases confirmed, bringing the tally to 241 •</t>
-  </si>
-  <si>
-    <t>Total cases:198,004, Total Deaths: 7,948 •</t>
-  </si>
-  <si>
-    <t>During  last  24  hours,  total  61  new  cases  confirmed  by  different  laboratories,  bringing  the •</t>
-  </si>
-  <si>
-    <t>national tally to 302 •</t>
-  </si>
-  <si>
-    <t>Total cases:218,631, Total Deaths: 8,809 •</t>
-  </si>
-  <si>
-    <t>Total number of countries/regions affected: 157 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 159  new cases confirmed by different laboratories, bringing the national •</t>
-  </si>
-  <si>
-    <t>tally to 461 •</t>
-  </si>
-  <si>
-    <t>• Total cases: 244,517, Total Deaths: 10,030 •</t>
-  </si>
-  <si>
-    <t>Total number of countries/regions affected: 160 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 34 new cases confirmed by different laboratories, bringing the national •</t>
-  </si>
-  <si>
-    <t>tally to 495 •</t>
-  </si>
-  <si>
-    <t>Total cases:275,427, Total Deaths: 11,397.  •</t>
-  </si>
-  <si>
-    <t>Total number of countries/regions affected: 166 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 255 new cases confirmed by different laboratories, bringing the national •</t>
-  </si>
-  <si>
-    <t>tally to 750 •</t>
-  </si>
-  <si>
-    <t>Total cases: 307,277 Total Deaths: 13,048.  •</t>
-  </si>
-  <si>
-    <t>Total number of countries/regions affected: 171 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 138 new cases confirmed by different laboratories, bringing the national •</t>
-  </si>
-  <si>
-    <t>tally to 646. 2 new deaths, 1 in KP 1 in Balochistan. •</t>
-  </si>
-  <si>
-    <t>Total cases: 335,997 Total Deaths: 14,641 . •</t>
-  </si>
-  <si>
-    <t>Total number of countries/regions affected: 173 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 241 new cases confirmed by different laboratories, bringing the national •</t>
-  </si>
-  <si>
-    <t>tally to 887. One death reported in GB in last 24 hours. Total deaths 6 •</t>
-  </si>
-  <si>
-    <t>Total cases: 381,499 Total Deaths: 16,557 •</t>
-  </si>
-  <si>
-    <t>Total number of countries/regions affected: 168 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 104 new cases confirmed by different laboratories, bringing the national •</t>
-  </si>
-  <si>
-    <t>tally to 991. One death reported in Punjab in last 24 hours. Total deaths 7 •</t>
-  </si>
-  <si>
-    <t>Total cases: 422,652 Total Deaths: 18,901 •</t>
-  </si>
-  <si>
-    <t>Total number of countries/regions affected: 170 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 66 new cases confirmed by different laboratories, bringing the national •</t>
-  </si>
-  <si>
-    <t>tally to 1,057. One death reported in Punjab in last 24 hours. Total deaths 8 •</t>
-  </si>
-  <si>
-    <t>Total cases: 471,407 Total Deaths: 21,287 •</t>
-  </si>
-  <si>
-    <t>Total number of countries/regions affected: 174 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 140 new cases confirmed by different laboratories, bringing the national •</t>
-  </si>
-  <si>
-    <t>tally to 1,197. One death reported in Punjab in last 24 hours. Total deaths 9 •</t>
-  </si>
-  <si>
-    <t>Total cases: 531,860 Total Deaths: 24,057 •</t>
-  </si>
-  <si>
-    <t>Total number of countries/regions affected: 175 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 211 new cases confirmed by different laboratories, bringing the national •</t>
-  </si>
-  <si>
-    <t>tally to 1,408. Two deaths reported in Punjab in last 24 hours. Total deaths 11 •</t>
-  </si>
-  <si>
-    <t>Total cases: 597,072 Total Deaths: 27,360 •</t>
-  </si>
-  <si>
-    <t>Total number of countries/regions affected: 177 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 118 new cases confirmed by different laboratories, bringing the national •</t>
-  </si>
-  <si>
-    <t>tally to 1,526. One death reported in KP and one death reported in Sindh in last 24 hours. Total •</t>
-  </si>
-  <si>
-    <t>deaths 13. •</t>
-  </si>
-  <si>
-    <t>Total cases: 664,695 Total Deaths: 30,847 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 99 new cases confirmed by different laboratories, bringing the national tally to 1,625. •</t>
-  </si>
-  <si>
-    <t>One death reported in KP, one death reported in Punjab and three in Sindh in last 24 hours. Total deaths •</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18. •       </t>
-  </si>
-  <si>
-    <t>Total cases: 722,289 Total Deaths: 33,984 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 240 new cases confirmed by different laboratories, bringing the national tally to •</t>
-  </si>
-  <si>
-    <t>1,865. One death reported in KP and GB each, three deaths reported in Punjab and two in Sindh in last •</t>
-  </si>
-  <si>
-    <t>24 hours. Total deaths 25. •</t>
-  </si>
-  <si>
-    <t>Total cases: 785,709 Total Deaths: 37,686 •</t>
-  </si>
-  <si>
-    <t>Total number of countries/regions affected: 178 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 174 new cases confirmed by different laboratories, bringing the national tally to •</t>
-  </si>
-  <si>
-    <t>2,039. One death reported from Sindh in last 24 hours. Total deaths 26. •</t>
-  </si>
-  <si>
-    <t>Total cases: 859,556 Total Deaths: 42,332 •</t>
-  </si>
-  <si>
-    <t>Total number of countries/regions affected: 180 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 252 new cases confirmed by different laboratories, bringing the national tally to •</t>
-  </si>
-  <si>
-    <t>2,291. Two deaths reported from Punjab and KP each. One death reported from Sindh in last 24 hours. •</t>
-  </si>
-  <si>
-    <t>Total deaths 31. •</t>
-  </si>
-  <si>
-    <t>Total cases:937,170 Total Deaths: 47,231 •</t>
-  </si>
-  <si>
-    <t>During last 24 hours, 159 new cases confirmed by different laboratories, bringing the national tally to •</t>
-  </si>
-  <si>
-    <t>2,450. Two deaths reported from Sindh. One death reported from GB and KP each in last 24 hours. Total •</t>
-  </si>
-  <si>
-    <t>deaths 35. •</t>
-  </si>
-  <si>
-    <t>Total cases:1,015,709 Total Deaths: 53,069 •</t>
-  </si>
-  <si>
-    <t>Total number of countries/regions affected: 181 •</t>
   </si>
   <si>
     <t>Updates: Pakistan: 
@@ -15057,13 +14760,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>425</v>
+        <v>326</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -41255,2068 +40958,210 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B2" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43901</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43901</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B5" t="s">
         <v>84</v>
       </c>
-      <c r="D3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43901</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B6" t="s">
         <v>85</v>
       </c>
-      <c r="D4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43901</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B7" t="s">
         <v>86</v>
       </c>
-      <c r="D5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43901</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43901</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B9" t="s">
         <v>88</v>
       </c>
-      <c r="D7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43902</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43902</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B10" t="s">
         <v>89</v>
       </c>
-      <c r="D9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43902</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B11" t="s">
         <v>90</v>
       </c>
-      <c r="D10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43902</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43902</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B12" t="s">
         <v>91</v>
       </c>
-      <c r="D12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43902</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B13" t="s">
         <v>92</v>
       </c>
-      <c r="D13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43903</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43903</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B14" t="s">
         <v>93</v>
       </c>
-      <c r="D15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43903</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B15" t="s">
         <v>94</v>
       </c>
-      <c r="D16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2">
-        <v>43903</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2">
-        <v>43903</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B16" t="s">
         <v>95</v>
       </c>
-      <c r="D18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2">
-        <v>43903</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B17" t="s">
         <v>96</v>
       </c>
-      <c r="D19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2">
-        <v>43904</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>43904</v>
-      </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B18" t="s">
         <v>97</v>
       </c>
-      <c r="D21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2">
-        <v>43904</v>
-      </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B19" t="s">
         <v>98</v>
       </c>
-      <c r="D22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2">
-        <v>43904</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2">
-        <v>43904</v>
-      </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B20" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2">
-        <v>43904</v>
-      </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B21" t="s">
         <v>100</v>
       </c>
-      <c r="D25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>43905</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2">
-        <v>43905</v>
-      </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B22" t="s">
         <v>101</v>
       </c>
-      <c r="D27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2">
-        <v>43905</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B23" t="s">
         <v>102</v>
       </c>
-      <c r="D28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2">
-        <v>43905</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2">
-        <v>43905</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B24" t="s">
         <v>103</v>
       </c>
-      <c r="D30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2">
-        <v>43905</v>
-      </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B25" t="s">
         <v>104</v>
-      </c>
-      <c r="D31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2">
-        <v>43906</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2">
-        <v>43906</v>
-      </c>
-      <c r="C33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" s="2">
-        <v>43906</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35" s="2">
-        <v>43906</v>
-      </c>
-      <c r="C35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2">
-        <v>43906</v>
-      </c>
-      <c r="C36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2">
-        <v>43907</v>
-      </c>
-      <c r="C37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2">
-        <v>43907</v>
-      </c>
-      <c r="C38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" s="2">
-        <v>43907</v>
-      </c>
-      <c r="C39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" s="2">
-        <v>43907</v>
-      </c>
-      <c r="C40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41" s="2">
-        <v>43907</v>
-      </c>
-      <c r="C41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42" s="2">
-        <v>43907</v>
-      </c>
-      <c r="C42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43" s="2">
-        <v>43908</v>
-      </c>
-      <c r="C43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2">
-        <v>43908</v>
-      </c>
-      <c r="C44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45" s="2">
-        <v>43908</v>
-      </c>
-      <c r="C45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2">
-        <v>43908</v>
-      </c>
-      <c r="C46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2">
-        <v>43909</v>
-      </c>
-      <c r="C47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" s="2">
-        <v>43909</v>
-      </c>
-      <c r="C48" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49" s="2">
-        <v>43909</v>
-      </c>
-      <c r="C49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>3</v>
-      </c>
-      <c r="B50" s="2">
-        <v>43909</v>
-      </c>
-      <c r="C50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>4</v>
-      </c>
-      <c r="B51" s="2">
-        <v>43909</v>
-      </c>
-      <c r="C51" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>5</v>
-      </c>
-      <c r="B52" s="2">
-        <v>43909</v>
-      </c>
-      <c r="C52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2">
-        <v>43910</v>
-      </c>
-      <c r="C53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2">
-        <v>43910</v>
-      </c>
-      <c r="C54" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55" s="2">
-        <v>43910</v>
-      </c>
-      <c r="C55" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>3</v>
-      </c>
-      <c r="B56" s="2">
-        <v>43910</v>
-      </c>
-      <c r="C56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>4</v>
-      </c>
-      <c r="B57" s="2">
-        <v>43910</v>
-      </c>
-      <c r="C57" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>5</v>
-      </c>
-      <c r="B58" s="2">
-        <v>43910</v>
-      </c>
-      <c r="C58" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2">
-        <v>43911</v>
-      </c>
-      <c r="C59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2">
-        <v>43911</v>
-      </c>
-      <c r="C60" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61" s="2">
-        <v>43911</v>
-      </c>
-      <c r="C61" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>3</v>
-      </c>
-      <c r="B62" s="2">
-        <v>43911</v>
-      </c>
-      <c r="C62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>4</v>
-      </c>
-      <c r="B63" s="2">
-        <v>43911</v>
-      </c>
-      <c r="C63" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>5</v>
-      </c>
-      <c r="B64" s="2">
-        <v>43911</v>
-      </c>
-      <c r="C64" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>0</v>
-      </c>
-      <c r="B65" s="2">
-        <v>43912</v>
-      </c>
-      <c r="C65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" s="2">
-        <v>43912</v>
-      </c>
-      <c r="C66" t="s">
-        <v>126</v>
-      </c>
-      <c r="D66" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67" s="2">
-        <v>43912</v>
-      </c>
-      <c r="C67" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>3</v>
-      </c>
-      <c r="B68" s="2">
-        <v>43912</v>
-      </c>
-      <c r="C68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>4</v>
-      </c>
-      <c r="B69" s="2">
-        <v>43912</v>
-      </c>
-      <c r="C69" t="s">
-        <v>128</v>
-      </c>
-      <c r="D69" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>5</v>
-      </c>
-      <c r="B70" s="2">
-        <v>43912</v>
-      </c>
-      <c r="C70" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>0</v>
-      </c>
-      <c r="B71" s="2">
-        <v>43913</v>
-      </c>
-      <c r="C71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" s="2">
-        <v>43913</v>
-      </c>
-      <c r="C72" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73" s="2">
-        <v>43913</v>
-      </c>
-      <c r="C73" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>3</v>
-      </c>
-      <c r="B74" s="2">
-        <v>43913</v>
-      </c>
-      <c r="C74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>4</v>
-      </c>
-      <c r="B75" s="2">
-        <v>43913</v>
-      </c>
-      <c r="C75" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>5</v>
-      </c>
-      <c r="B76" s="2">
-        <v>43913</v>
-      </c>
-      <c r="C76" t="s">
-        <v>133</v>
-      </c>
-      <c r="D76" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>0</v>
-      </c>
-      <c r="B77" s="2">
-        <v>43914</v>
-      </c>
-      <c r="C77" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78" s="2">
-        <v>43914</v>
-      </c>
-      <c r="C78" t="s">
-        <v>134</v>
-      </c>
-      <c r="D78" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79" s="2">
-        <v>43914</v>
-      </c>
-      <c r="C79" t="s">
-        <v>135</v>
-      </c>
-      <c r="D79" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>3</v>
-      </c>
-      <c r="B80" s="2">
-        <v>43914</v>
-      </c>
-      <c r="C80" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>4</v>
-      </c>
-      <c r="B81" s="2">
-        <v>43914</v>
-      </c>
-      <c r="C81" t="s">
-        <v>136</v>
-      </c>
-      <c r="D81" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>5</v>
-      </c>
-      <c r="B82" s="2">
-        <v>43914</v>
-      </c>
-      <c r="C82" t="s">
-        <v>137</v>
-      </c>
-      <c r="D82" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>0</v>
-      </c>
-      <c r="B83" s="2">
-        <v>43915</v>
-      </c>
-      <c r="C83" t="s">
-        <v>83</v>
-      </c>
-      <c r="D83" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84" s="2">
-        <v>43915</v>
-      </c>
-      <c r="C84" t="s">
-        <v>138</v>
-      </c>
-      <c r="D84" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>2</v>
-      </c>
-      <c r="B85" s="2">
-        <v>43915</v>
-      </c>
-      <c r="C85" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>3</v>
-      </c>
-      <c r="B86" s="2">
-        <v>43915</v>
-      </c>
-      <c r="C86" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>4</v>
-      </c>
-      <c r="B87" s="2">
-        <v>43915</v>
-      </c>
-      <c r="C87" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>5</v>
-      </c>
-      <c r="B88" s="2">
-        <v>43915</v>
-      </c>
-      <c r="C88" t="s">
-        <v>141</v>
-      </c>
-      <c r="D88" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
-        <v>0</v>
-      </c>
-      <c r="B89" s="2">
-        <v>43916</v>
-      </c>
-      <c r="C89" t="s">
-        <v>83</v>
-      </c>
-      <c r="D89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" s="2">
-        <v>43916</v>
-      </c>
-      <c r="C90" t="s">
-        <v>142</v>
-      </c>
-      <c r="D90" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
-        <v>2</v>
-      </c>
-      <c r="B91" s="2">
-        <v>43916</v>
-      </c>
-      <c r="C91" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
-        <v>3</v>
-      </c>
-      <c r="B92" s="2">
-        <v>43916</v>
-      </c>
-      <c r="C92" t="s">
-        <v>86</v>
-      </c>
-      <c r="D92" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
-        <v>4</v>
-      </c>
-      <c r="B93" s="2">
-        <v>43916</v>
-      </c>
-      <c r="C93" t="s">
-        <v>144</v>
-      </c>
-      <c r="D93" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>5</v>
-      </c>
-      <c r="B94" s="2">
-        <v>43916</v>
-      </c>
-      <c r="C94" t="s">
-        <v>145</v>
-      </c>
-      <c r="D94" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>0</v>
-      </c>
-      <c r="B95" s="2">
-        <v>43917</v>
-      </c>
-      <c r="C95" t="s">
-        <v>83</v>
-      </c>
-      <c r="D95" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96" s="2">
-        <v>43917</v>
-      </c>
-      <c r="C96" t="s">
-        <v>146</v>
-      </c>
-      <c r="D96" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>2</v>
-      </c>
-      <c r="B97" s="2">
-        <v>43917</v>
-      </c>
-      <c r="C97" t="s">
-        <v>147</v>
-      </c>
-      <c r="D97" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>3</v>
-      </c>
-      <c r="B98" s="2">
-        <v>43917</v>
-      </c>
-      <c r="C98" t="s">
-        <v>86</v>
-      </c>
-      <c r="D98" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
-        <v>4</v>
-      </c>
-      <c r="B99" s="2">
-        <v>43917</v>
-      </c>
-      <c r="C99" t="s">
-        <v>148</v>
-      </c>
-      <c r="D99" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
-        <v>5</v>
-      </c>
-      <c r="B100" s="2">
-        <v>43917</v>
-      </c>
-      <c r="C100" t="s">
-        <v>149</v>
-      </c>
-      <c r="D100" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
-        <v>0</v>
-      </c>
-      <c r="B101" s="2">
-        <v>43918</v>
-      </c>
-      <c r="C101" t="s">
-        <v>83</v>
-      </c>
-      <c r="D101" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102" s="2">
-        <v>43918</v>
-      </c>
-      <c r="C102" t="s">
-        <v>150</v>
-      </c>
-      <c r="D102" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
-        <v>2</v>
-      </c>
-      <c r="B103" s="2">
-        <v>43918</v>
-      </c>
-      <c r="C103" t="s">
-        <v>151</v>
-      </c>
-      <c r="D103" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104">
-        <v>3</v>
-      </c>
-      <c r="B104" s="2">
-        <v>43918</v>
-      </c>
-      <c r="C104" t="s">
-        <v>86</v>
-      </c>
-      <c r="D104" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>4</v>
-      </c>
-      <c r="B105" s="2">
-        <v>43918</v>
-      </c>
-      <c r="C105" t="s">
-        <v>152</v>
-      </c>
-      <c r="D105" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106">
-        <v>5</v>
-      </c>
-      <c r="B106" s="2">
-        <v>43918</v>
-      </c>
-      <c r="C106" t="s">
-        <v>153</v>
-      </c>
-      <c r="D106" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107">
-        <v>0</v>
-      </c>
-      <c r="B107" s="2">
-        <v>43919</v>
-      </c>
-      <c r="C107" t="s">
-        <v>83</v>
-      </c>
-      <c r="D107" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108" s="2">
-        <v>43919</v>
-      </c>
-      <c r="C108" t="s">
-        <v>154</v>
-      </c>
-      <c r="D108" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109">
-        <v>2</v>
-      </c>
-      <c r="B109" s="2">
-        <v>43919</v>
-      </c>
-      <c r="C109" t="s">
-        <v>155</v>
-      </c>
-      <c r="D109" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110">
-        <v>3</v>
-      </c>
-      <c r="B110" s="2">
-        <v>43919</v>
-      </c>
-      <c r="C110" t="s">
-        <v>156</v>
-      </c>
-      <c r="D110" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111">
-        <v>4</v>
-      </c>
-      <c r="B111" s="2">
-        <v>43919</v>
-      </c>
-      <c r="C111" t="s">
-        <v>86</v>
-      </c>
-      <c r="D111" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112">
-        <v>5</v>
-      </c>
-      <c r="B112" s="2">
-        <v>43919</v>
-      </c>
-      <c r="C112" t="s">
-        <v>157</v>
-      </c>
-      <c r="D112" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113">
-        <v>6</v>
-      </c>
-      <c r="B113" s="2">
-        <v>43919</v>
-      </c>
-      <c r="C113" t="s">
-        <v>153</v>
-      </c>
-      <c r="D113" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114">
-        <v>0</v>
-      </c>
-      <c r="B114" s="2">
-        <v>43920</v>
-      </c>
-      <c r="C114" t="s">
-        <v>83</v>
-      </c>
-      <c r="D114" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115" s="2">
-        <v>43920</v>
-      </c>
-      <c r="C115" t="s">
-        <v>158</v>
-      </c>
-      <c r="D115" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116">
-        <v>2</v>
-      </c>
-      <c r="B116" s="2">
-        <v>43920</v>
-      </c>
-      <c r="C116" t="s">
-        <v>159</v>
-      </c>
-      <c r="D116" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117">
-        <v>3</v>
-      </c>
-      <c r="B117" s="2">
-        <v>43920</v>
-      </c>
-      <c r="C117" t="s">
-        <v>160</v>
-      </c>
-      <c r="D117" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118">
-        <v>4</v>
-      </c>
-      <c r="B118" s="2">
-        <v>43920</v>
-      </c>
-      <c r="C118" t="s">
-        <v>86</v>
-      </c>
-      <c r="D118" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119">
-        <v>5</v>
-      </c>
-      <c r="B119" s="2">
-        <v>43920</v>
-      </c>
-      <c r="C119" t="s">
-        <v>161</v>
-      </c>
-      <c r="D119" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120">
-        <v>6</v>
-      </c>
-      <c r="B120" s="2">
-        <v>43920</v>
-      </c>
-      <c r="C120" t="s">
-        <v>153</v>
-      </c>
-      <c r="D120" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121">
-        <v>0</v>
-      </c>
-      <c r="B121" s="2">
-        <v>43921</v>
-      </c>
-      <c r="C121" t="s">
-        <v>83</v>
-      </c>
-      <c r="D121" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122">
-        <v>1</v>
-      </c>
-      <c r="B122" s="2">
-        <v>43921</v>
-      </c>
-      <c r="C122" t="s">
-        <v>162</v>
-      </c>
-      <c r="D122" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123">
-        <v>2</v>
-      </c>
-      <c r="B123" s="2">
-        <v>43921</v>
-      </c>
-      <c r="C123" t="s">
-        <v>163</v>
-      </c>
-      <c r="D123" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124">
-        <v>3</v>
-      </c>
-      <c r="B124" s="2">
-        <v>43921</v>
-      </c>
-      <c r="C124" t="s">
-        <v>164</v>
-      </c>
-      <c r="D124" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125">
-        <v>4</v>
-      </c>
-      <c r="B125" s="2">
-        <v>43921</v>
-      </c>
-      <c r="C125" t="s">
-        <v>86</v>
-      </c>
-      <c r="D125" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126">
-        <v>5</v>
-      </c>
-      <c r="B126" s="2">
-        <v>43921</v>
-      </c>
-      <c r="C126" t="s">
-        <v>165</v>
-      </c>
-      <c r="D126" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127">
-        <v>6</v>
-      </c>
-      <c r="B127" s="2">
-        <v>43921</v>
-      </c>
-      <c r="C127" t="s">
-        <v>166</v>
-      </c>
-      <c r="D127" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128">
-        <v>0</v>
-      </c>
-      <c r="B128" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C128" t="s">
-        <v>83</v>
-      </c>
-      <c r="D128" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C129" t="s">
-        <v>167</v>
-      </c>
-      <c r="D129" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130">
-        <v>2</v>
-      </c>
-      <c r="B130" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C130" t="s">
-        <v>168</v>
-      </c>
-      <c r="D130" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131">
-        <v>3</v>
-      </c>
-      <c r="B131" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C131" t="s">
-        <v>86</v>
-      </c>
-      <c r="D131" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132">
-        <v>4</v>
-      </c>
-      <c r="B132" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C132" t="s">
-        <v>169</v>
-      </c>
-      <c r="D132" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133">
-        <v>5</v>
-      </c>
-      <c r="B133" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C133" t="s">
-        <v>170</v>
-      </c>
-      <c r="D133" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134">
-        <v>0</v>
-      </c>
-      <c r="B134" s="2">
-        <v>43923</v>
-      </c>
-      <c r="C134" t="s">
-        <v>83</v>
-      </c>
-      <c r="D134" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135">
-        <v>1</v>
-      </c>
-      <c r="B135" s="2">
-        <v>43923</v>
-      </c>
-      <c r="C135" t="s">
-        <v>171</v>
-      </c>
-      <c r="D135" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136">
-        <v>2</v>
-      </c>
-      <c r="B136" s="2">
-        <v>43923</v>
-      </c>
-      <c r="C136" t="s">
-        <v>172</v>
-      </c>
-      <c r="D136" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137">
-        <v>3</v>
-      </c>
-      <c r="B137" s="2">
-        <v>43923</v>
-      </c>
-      <c r="C137" t="s">
-        <v>173</v>
-      </c>
-      <c r="D137" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138">
-        <v>4</v>
-      </c>
-      <c r="B138" s="2">
-        <v>43923</v>
-      </c>
-      <c r="C138" t="s">
-        <v>86</v>
-      </c>
-      <c r="D138" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139">
-        <v>5</v>
-      </c>
-      <c r="B139" s="2">
-        <v>43923</v>
-      </c>
-      <c r="C139" t="s">
-        <v>174</v>
-      </c>
-      <c r="D139" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140">
-        <v>6</v>
-      </c>
-      <c r="B140" s="2">
-        <v>43923</v>
-      </c>
-      <c r="C140" t="s">
-        <v>170</v>
-      </c>
-      <c r="D140" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141">
-        <v>0</v>
-      </c>
-      <c r="B141" s="2">
-        <v>43924</v>
-      </c>
-      <c r="C141" t="s">
-        <v>83</v>
-      </c>
-      <c r="D141" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142">
-        <v>1</v>
-      </c>
-      <c r="B142" s="2">
-        <v>43924</v>
-      </c>
-      <c r="C142" t="s">
-        <v>175</v>
-      </c>
-      <c r="D142" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143">
-        <v>2</v>
-      </c>
-      <c r="B143" s="2">
-        <v>43924</v>
-      </c>
-      <c r="C143" t="s">
-        <v>176</v>
-      </c>
-      <c r="D143" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144">
-        <v>3</v>
-      </c>
-      <c r="B144" s="2">
-        <v>43924</v>
-      </c>
-      <c r="C144" t="s">
-        <v>177</v>
-      </c>
-      <c r="D144" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145">
-        <v>4</v>
-      </c>
-      <c r="B145" s="2">
-        <v>43924</v>
-      </c>
-      <c r="C145" t="s">
-        <v>86</v>
-      </c>
-      <c r="D145" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146">
-        <v>5</v>
-      </c>
-      <c r="B146" s="2">
-        <v>43924</v>
-      </c>
-      <c r="C146" t="s">
-        <v>178</v>
-      </c>
-      <c r="D146" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147">
-        <v>6</v>
-      </c>
-      <c r="B147" s="2">
-        <v>43924</v>
-      </c>
-      <c r="C147" t="s">
-        <v>179</v>
-      </c>
-      <c r="D147" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -43334,16 +41179,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -43354,10 +41199,10 @@
         <v>43901</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -43368,10 +41213,10 @@
         <v>43901</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -43382,10 +41227,10 @@
         <v>43901</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -43396,10 +41241,10 @@
         <v>43901</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -43410,10 +41255,10 @@
         <v>43902</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -43424,10 +41269,10 @@
         <v>43902</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -43438,10 +41283,10 @@
         <v>43902</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -43452,10 +41297,10 @@
         <v>43902</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -43466,10 +41311,10 @@
         <v>43903</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -43480,10 +41325,10 @@
         <v>43903</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -43494,10 +41339,10 @@
         <v>43904</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -43508,10 +41353,10 @@
         <v>43904</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -43522,10 +41367,10 @@
         <v>43905</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -43536,10 +41381,10 @@
         <v>43906</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -43550,10 +41395,10 @@
         <v>43907</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -43564,10 +41409,10 @@
         <v>43908</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -43578,10 +41423,10 @@
         <v>43908</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -43592,10 +41437,10 @@
         <v>43909</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -43606,10 +41451,10 @@
         <v>43909</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -43620,10 +41465,10 @@
         <v>43909</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -43634,10 +41479,10 @@
         <v>43910</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -43648,10 +41493,10 @@
         <v>43910</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -43662,10 +41507,10 @@
         <v>43910</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -43676,10 +41521,10 @@
         <v>43911</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -43690,10 +41535,10 @@
         <v>43911</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -43704,10 +41549,10 @@
         <v>43911</v>
       </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -43718,10 +41563,10 @@
         <v>43912</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -43732,10 +41577,10 @@
         <v>43912</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -43746,10 +41591,10 @@
         <v>43912</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -43760,10 +41605,10 @@
         <v>43913</v>
       </c>
       <c r="C31" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -43774,10 +41619,10 @@
         <v>43913</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -43788,10 +41633,10 @@
         <v>43913</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -43802,10 +41647,10 @@
         <v>43914</v>
       </c>
       <c r="C34" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -43816,10 +41661,10 @@
         <v>43914</v>
       </c>
       <c r="C35" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -43830,10 +41675,10 @@
         <v>43914</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -43844,10 +41689,10 @@
         <v>43915</v>
       </c>
       <c r="C37" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -43858,10 +41703,10 @@
         <v>43915</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -43872,10 +41717,10 @@
         <v>43915</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -43886,10 +41731,10 @@
         <v>43916</v>
       </c>
       <c r="C40" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -43900,10 +41745,10 @@
         <v>43916</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -43914,10 +41759,10 @@
         <v>43916</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -43928,10 +41773,10 @@
         <v>43917</v>
       </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -43942,10 +41787,10 @@
         <v>43917</v>
       </c>
       <c r="C44" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -43956,10 +41801,10 @@
         <v>43917</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -43970,10 +41815,10 @@
         <v>43918</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -43984,10 +41829,10 @@
         <v>43918</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -43998,10 +41843,10 @@
         <v>43918</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -44012,10 +41857,10 @@
         <v>43919</v>
       </c>
       <c r="C49" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -44026,10 +41871,10 @@
         <v>43919</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -44040,10 +41885,10 @@
         <v>43919</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -44054,10 +41899,10 @@
         <v>43920</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -44068,10 +41913,10 @@
         <v>43920</v>
       </c>
       <c r="C53" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -44082,10 +41927,10 @@
         <v>43920</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -44096,10 +41941,10 @@
         <v>43921</v>
       </c>
       <c r="C55" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -44110,10 +41955,10 @@
         <v>43921</v>
       </c>
       <c r="C56" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -44124,10 +41969,10 @@
         <v>43921</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -44138,10 +41983,10 @@
         <v>43922</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -44152,10 +41997,10 @@
         <v>43922</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -44166,10 +42011,10 @@
         <v>43922</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -44180,10 +42025,10 @@
         <v>43923</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -44194,10 +42039,10 @@
         <v>43923</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -44208,10 +42053,10 @@
         <v>43923</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -44222,10 +42067,10 @@
         <v>43924</v>
       </c>
       <c r="C64" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -44236,10 +42081,10 @@
         <v>43924</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -44250,10 +42095,10 @@
         <v>43924</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -44274,7 +42119,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -44282,7 +42127,7 @@
         <v>43901</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -44290,7 +42135,7 @@
         <v>43902</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -44298,7 +42143,7 @@
         <v>43903</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -44306,7 +42151,7 @@
         <v>43904</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -44314,7 +42159,7 @@
         <v>43905</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -44322,7 +42167,7 @@
         <v>43906</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -44330,7 +42175,7 @@
         <v>43907</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -44338,7 +42183,7 @@
         <v>43908</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -44346,7 +42191,7 @@
         <v>43909</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -44354,7 +42199,7 @@
         <v>43910</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -44362,7 +42207,7 @@
         <v>43911</v>
       </c>
       <c r="B12" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -44370,7 +42215,7 @@
         <v>43912</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -44378,7 +42223,7 @@
         <v>43913</v>
       </c>
       <c r="B14" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -44386,7 +42231,7 @@
         <v>43914</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -44394,7 +42239,7 @@
         <v>43915</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -44402,7 +42247,7 @@
         <v>43916</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -44410,7 +42255,7 @@
         <v>43917</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -44418,7 +42263,7 @@
         <v>43918</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -44426,7 +42271,7 @@
         <v>43919</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -44434,7 +42279,7 @@
         <v>43920</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -44442,7 +42287,7 @@
         <v>43921</v>
       </c>
       <c r="B22" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -44450,7 +42295,7 @@
         <v>43922</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -44458,7 +42303,7 @@
         <v>43923</v>
       </c>
       <c r="B24" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -44466,7 +42311,7 @@
         <v>43924</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -44484,19 +42329,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -44507,13 +42352,13 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2">
         <v>43901</v>
       </c>
       <c r="E2" t="s">
-        <v>399</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -44524,13 +42369,13 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2">
         <v>43901</v>
       </c>
       <c r="E3" t="s">
-        <v>399</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -44541,13 +42386,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="D4" s="2">
         <v>43901</v>
       </c>
       <c r="E4" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -44558,13 +42403,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2">
         <v>43901</v>
       </c>
       <c r="E5" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -44572,16 +42417,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="D6" s="2">
         <v>43901</v>
       </c>
       <c r="E6" t="s">
-        <v>401</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -44589,16 +42434,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="D7" s="2">
         <v>43901</v>
       </c>
       <c r="E7" t="s">
-        <v>401</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -44606,16 +42451,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="D8" s="2">
         <v>43901</v>
       </c>
       <c r="E8" t="s">
-        <v>401</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -44626,13 +42471,13 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="D9" s="2">
         <v>43901</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -44643,13 +42488,13 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="D10" s="2">
         <v>43902</v>
       </c>
       <c r="E10" t="s">
-        <v>402</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -44660,13 +42505,13 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="D11" s="2">
         <v>43902</v>
       </c>
       <c r="E11" t="s">
-        <v>402</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -44677,13 +42522,13 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="D12" s="2">
         <v>43902</v>
       </c>
       <c r="E12" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -44694,13 +42539,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="D13" s="2">
         <v>43902</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -44708,16 +42553,16 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="D14" s="2">
         <v>43902</v>
       </c>
       <c r="E14" t="s">
-        <v>403</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -44725,16 +42570,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="D15" s="2">
         <v>43902</v>
       </c>
       <c r="E15" t="s">
-        <v>403</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -44745,13 +42590,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="D16" s="2">
         <v>43902</v>
       </c>
       <c r="E16" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -44762,13 +42607,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="D17" s="2">
         <v>43902</v>
       </c>
       <c r="E17" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -44779,13 +42624,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="D18" s="2">
         <v>43903</v>
       </c>
       <c r="E18" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -44796,13 +42641,13 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="D19" s="2">
         <v>43903</v>
       </c>
       <c r="E19" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -44813,13 +42658,13 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="D20" s="2">
         <v>43903</v>
       </c>
       <c r="E20" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -44830,13 +42675,13 @@
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="D21" s="2">
         <v>43903</v>
       </c>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -44844,16 +42689,16 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2">
         <v>43903</v>
       </c>
       <c r="E22" t="s">
-        <v>405</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -44861,16 +42706,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="D23" s="2">
         <v>43903</v>
       </c>
       <c r="E23" t="s">
-        <v>405</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -44881,13 +42726,13 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="D24" s="2">
         <v>43903</v>
       </c>
       <c r="E24" t="s">
-        <v>406</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -44898,13 +42743,13 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="D25" s="2">
         <v>43903</v>
       </c>
       <c r="E25" t="s">
-        <v>406</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -44915,13 +42760,13 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="D26" s="2">
         <v>43903</v>
       </c>
       <c r="E26" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -44932,13 +42777,13 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="D27" s="2">
         <v>43904</v>
       </c>
       <c r="E27" t="s">
-        <v>407</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -44949,13 +42794,13 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="D28" s="2">
         <v>43904</v>
       </c>
       <c r="E28" t="s">
-        <v>407</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -44966,13 +42811,13 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D29" s="2">
         <v>43904</v>
       </c>
       <c r="E29" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -44980,16 +42825,16 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="D30" s="2">
         <v>43904</v>
       </c>
       <c r="E30" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -45000,13 +42845,13 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="D31" s="2">
         <v>43904</v>
       </c>
       <c r="E31" t="s">
-        <v>408</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -45017,13 +42862,13 @@
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="D32" s="2">
         <v>43904</v>
       </c>
       <c r="E32" t="s">
-        <v>408</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -45034,13 +42879,13 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="D33" s="2">
         <v>43904</v>
       </c>
       <c r="E33" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -45051,13 +42896,13 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="D34" s="2">
         <v>43905</v>
       </c>
       <c r="E34" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -45068,13 +42913,13 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="D35" s="2">
         <v>43905</v>
       </c>
       <c r="E35" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -45085,13 +42930,13 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="D36" s="2">
         <v>43905</v>
       </c>
       <c r="E36" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -45102,13 +42947,13 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="D37" s="2">
         <v>43905</v>
       </c>
       <c r="E37" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -45119,13 +42964,13 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="D38" s="2">
         <v>43905</v>
       </c>
       <c r="E38" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -45136,13 +42981,13 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="D39" s="2">
         <v>43905</v>
       </c>
       <c r="E39" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -45150,16 +42995,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="D40" s="2">
         <v>43905</v>
       </c>
       <c r="E40" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -45170,13 +43015,13 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="D41" s="2">
         <v>43905</v>
       </c>
       <c r="E41" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -45187,13 +43032,13 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="D42" s="2">
         <v>43905</v>
       </c>
       <c r="E42" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -45204,13 +43049,13 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="D43" s="2">
         <v>43905</v>
       </c>
       <c r="E43" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -45221,13 +43066,13 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="D44" s="2">
         <v>43906</v>
       </c>
       <c r="E44" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -45238,13 +43083,13 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="D45" s="2">
         <v>43906</v>
       </c>
       <c r="E45" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -45255,13 +43100,13 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="D46" s="2">
         <v>43906</v>
       </c>
       <c r="E46" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -45272,13 +43117,13 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="D47" s="2">
         <v>43906</v>
       </c>
       <c r="E47" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -45286,16 +43131,16 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="D48" s="2">
         <v>43906</v>
       </c>
       <c r="E48" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -45306,13 +43151,13 @@
         <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="D49" s="2">
         <v>43906</v>
       </c>
       <c r="E49" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -45323,13 +43168,13 @@
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="D50" s="2">
         <v>43906</v>
       </c>
       <c r="E50" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -45340,13 +43185,13 @@
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="D51" s="2">
         <v>43906</v>
       </c>
       <c r="E51" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -45357,13 +43202,13 @@
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="D52" s="2">
         <v>43907</v>
       </c>
       <c r="E52" t="s">
-        <v>413</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -45374,13 +43219,13 @@
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D53" s="2">
         <v>43907</v>
       </c>
       <c r="E53" t="s">
-        <v>413</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -45391,13 +43236,13 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="D54" s="2">
         <v>43907</v>
       </c>
       <c r="E54" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -45408,13 +43253,13 @@
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="D55" s="2">
         <v>43907</v>
       </c>
       <c r="E55" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -45425,13 +43270,13 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="D56" s="2">
         <v>43907</v>
       </c>
       <c r="E56" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -45439,16 +43284,16 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="D57" s="2">
         <v>43907</v>
       </c>
       <c r="E57" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -45459,13 +43304,13 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="D58" s="2">
         <v>43907</v>
       </c>
       <c r="E58" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -45476,13 +43321,13 @@
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="D59" s="2">
         <v>43907</v>
       </c>
       <c r="E59" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -45493,13 +43338,13 @@
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="D60" s="2">
         <v>43908</v>
       </c>
       <c r="E60" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -45510,13 +43355,13 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="D61" s="2">
         <v>43908</v>
       </c>
       <c r="E61" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -45527,13 +43372,13 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="D62" s="2">
         <v>43908</v>
       </c>
       <c r="E62" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -45544,13 +43389,13 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="D63" s="2">
         <v>43908</v>
       </c>
       <c r="E63" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -45558,16 +43403,16 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D64" s="2">
         <v>43908</v>
       </c>
       <c r="E64" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -45578,13 +43423,13 @@
         <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="D65" s="2">
         <v>43908</v>
       </c>
       <c r="E65" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -45595,13 +43440,13 @@
         <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="D66" s="2">
         <v>43908</v>
       </c>
       <c r="E66" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -45612,13 +43457,13 @@
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="D67" s="2">
         <v>43908</v>
       </c>
       <c r="E67" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -45629,13 +43474,13 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="D68" s="2">
         <v>43909</v>
       </c>
       <c r="E68" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -45646,13 +43491,13 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="D69" s="2">
         <v>43909</v>
       </c>
       <c r="E69" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -45663,13 +43508,13 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="D70" s="2">
         <v>43909</v>
       </c>
       <c r="E70" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -45677,16 +43522,16 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="D71" s="2">
         <v>43909</v>
       </c>
       <c r="E71" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -45697,13 +43542,13 @@
         <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="D72" s="2">
         <v>43909</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -45714,13 +43559,13 @@
         <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="D73" s="2">
         <v>43909</v>
       </c>
       <c r="E73" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -45731,13 +43576,13 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="D74" s="2">
         <v>43910</v>
       </c>
       <c r="E74" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -45748,13 +43593,13 @@
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="D75" s="2">
         <v>43910</v>
       </c>
       <c r="E75" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -45765,13 +43610,13 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D76" s="2">
         <v>43910</v>
       </c>
       <c r="E76" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -45782,13 +43627,13 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="D77" s="2">
         <v>43910</v>
       </c>
       <c r="E77" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -45796,16 +43641,16 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="D78" s="2">
         <v>43910</v>
       </c>
       <c r="E78" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -45816,13 +43661,13 @@
         <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="D79" s="2">
         <v>43910</v>
       </c>
       <c r="E79" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -45833,13 +43678,13 @@
         <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="D80" s="2">
         <v>43910</v>
       </c>
       <c r="E80" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -45850,13 +43695,13 @@
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c r="D81" s="2">
         <v>43911</v>
       </c>
       <c r="E81" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -45867,13 +43712,13 @@
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="D82" s="2">
         <v>43911</v>
       </c>
       <c r="E82" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -45884,13 +43729,13 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="D83" s="2">
         <v>43911</v>
       </c>
       <c r="E83" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -45901,13 +43746,13 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="D84" s="2">
         <v>43911</v>
       </c>
       <c r="E84" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -45915,16 +43760,16 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="D85" s="2">
         <v>43911</v>
       </c>
       <c r="E85" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -45935,13 +43780,13 @@
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="D86" s="2">
         <v>43911</v>
       </c>
       <c r="E86" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -45952,13 +43797,13 @@
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
       <c r="D87" s="2">
         <v>43911</v>
       </c>
       <c r="E87" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -45969,13 +43814,13 @@
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="D88" s="2">
         <v>43912</v>
       </c>
       <c r="E88" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -45986,13 +43831,13 @@
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="D89" s="2">
         <v>43912</v>
       </c>
       <c r="E89" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -46003,13 +43848,13 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="D90" s="2">
         <v>43912</v>
       </c>
       <c r="E90" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -46020,13 +43865,13 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="D91" s="2">
         <v>43912</v>
       </c>
       <c r="E91" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -46034,16 +43879,16 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C92" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="D92" s="2">
         <v>43912</v>
       </c>
       <c r="E92" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -46054,13 +43899,13 @@
         <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="D93" s="2">
         <v>43912</v>
       </c>
       <c r="E93" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -46071,13 +43916,13 @@
         <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="D94" s="2">
         <v>43912</v>
       </c>
       <c r="E94" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -46088,13 +43933,13 @@
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="D95" s="2">
         <v>43913</v>
       </c>
       <c r="E95" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -46105,13 +43950,13 @@
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="D96" s="2">
         <v>43913</v>
       </c>
       <c r="E96" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -46122,13 +43967,13 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="D97" s="2">
         <v>43913</v>
       </c>
       <c r="E97" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -46136,16 +43981,16 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="D98" s="2">
         <v>43913</v>
       </c>
       <c r="E98" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -46156,13 +44001,13 @@
         <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="D99" s="2">
         <v>43913</v>
       </c>
       <c r="E99" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -46173,13 +44018,13 @@
         <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="D100" s="2">
         <v>43913</v>
       </c>
       <c r="E100" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -46190,13 +44035,13 @@
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
       <c r="D101" s="2">
         <v>43914</v>
       </c>
       <c r="E101" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -46207,13 +44052,13 @@
         <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
       <c r="D102" s="2">
         <v>43914</v>
       </c>
       <c r="E102" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -46224,13 +44069,13 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="D103" s="2">
         <v>43914</v>
       </c>
       <c r="E103" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -46238,16 +44083,16 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C104" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
       <c r="D104" s="2">
         <v>43914</v>
       </c>
       <c r="E104" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -46258,13 +44103,13 @@
         <v>17</v>
       </c>
       <c r="C105" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
       <c r="D105" s="2">
         <v>43914</v>
       </c>
       <c r="E105" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -46275,13 +44120,13 @@
         <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>345</v>
+        <v>246</v>
       </c>
       <c r="D106" s="2">
         <v>43914</v>
       </c>
       <c r="E106" t="s">
-        <v>345</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -46292,13 +44137,13 @@
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="D107" s="2">
         <v>43915</v>
       </c>
       <c r="E107" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -46309,13 +44154,13 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D108" s="2">
         <v>43915</v>
       </c>
       <c r="E108" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -46326,13 +44171,13 @@
         <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="D109" s="2">
         <v>43915</v>
       </c>
       <c r="E109" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -46340,16 +44185,16 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C110" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="D110" s="2">
         <v>43915</v>
       </c>
       <c r="E110" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -46360,13 +44205,13 @@
         <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="D111" s="2">
         <v>43915</v>
       </c>
       <c r="E111" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -46377,13 +44222,13 @@
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
       <c r="D112" s="2">
         <v>43916</v>
       </c>
       <c r="E112" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -46394,13 +44239,13 @@
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="D113" s="2">
         <v>43916</v>
       </c>
       <c r="E113" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -46411,13 +44256,13 @@
         <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="D114" s="2">
         <v>43916</v>
       </c>
       <c r="E114" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -46425,16 +44270,16 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C115" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
       <c r="D115" s="2">
         <v>43916</v>
       </c>
       <c r="E115" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -46445,13 +44290,13 @@
         <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
       <c r="D116" s="2">
         <v>43916</v>
       </c>
       <c r="E116" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -46462,13 +44307,13 @@
         <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="D117" s="2">
         <v>43916</v>
       </c>
       <c r="E117" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -46479,13 +44324,13 @@
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>357</v>
+        <v>258</v>
       </c>
       <c r="D118" s="2">
         <v>43917</v>
       </c>
       <c r="E118" t="s">
-        <v>357</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -46496,13 +44341,13 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="D119" s="2">
         <v>43917</v>
       </c>
       <c r="E119" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -46513,13 +44358,13 @@
         <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="D120" s="2">
         <v>43917</v>
       </c>
       <c r="E120" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -46530,13 +44375,13 @@
         <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
       <c r="D121" s="2">
         <v>43917</v>
       </c>
       <c r="E121" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -46547,13 +44392,13 @@
         <v>17</v>
       </c>
       <c r="C122" t="s">
-        <v>361</v>
+        <v>262</v>
       </c>
       <c r="D122" s="2">
         <v>43917</v>
       </c>
       <c r="E122" t="s">
-        <v>361</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -46564,13 +44409,13 @@
         <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="D123" s="2">
         <v>43917</v>
       </c>
       <c r="E123" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -46581,13 +44426,13 @@
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="D124" s="2">
         <v>43918</v>
       </c>
       <c r="E124" t="s">
-        <v>363</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -46598,13 +44443,13 @@
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="D125" s="2">
         <v>43918</v>
       </c>
       <c r="E125" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -46615,13 +44460,13 @@
         <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="D126" s="2">
         <v>43918</v>
       </c>
       <c r="E126" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -46632,13 +44477,13 @@
         <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>365</v>
+        <v>266</v>
       </c>
       <c r="D127" s="2">
         <v>43918</v>
       </c>
       <c r="E127" t="s">
-        <v>365</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -46649,13 +44494,13 @@
         <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>366</v>
+        <v>267</v>
       </c>
       <c r="D128" s="2">
         <v>43918</v>
       </c>
       <c r="E128" t="s">
-        <v>366</v>
+        <v>267</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -46666,13 +44511,13 @@
         <v>18</v>
       </c>
       <c r="C129" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="D129" s="2">
         <v>43918</v>
       </c>
       <c r="E129" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -46683,13 +44528,13 @@
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>368</v>
+        <v>269</v>
       </c>
       <c r="D130" s="2">
         <v>43919</v>
       </c>
       <c r="E130" t="s">
-        <v>368</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -46700,13 +44545,13 @@
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="D131" s="2">
         <v>43919</v>
       </c>
       <c r="E131" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -46717,13 +44562,13 @@
         <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
       <c r="D132" s="2">
         <v>43919</v>
       </c>
       <c r="E132" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -46734,13 +44579,13 @@
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
       <c r="D133" s="2">
         <v>43919</v>
       </c>
       <c r="E133" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -46751,13 +44596,13 @@
         <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
       <c r="D134" s="2">
         <v>43919</v>
       </c>
       <c r="E134" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -46768,13 +44613,13 @@
         <v>18</v>
       </c>
       <c r="C135" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="D135" s="2">
         <v>43919</v>
       </c>
       <c r="E135" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -46785,13 +44630,13 @@
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
       <c r="D136" s="2">
         <v>43920</v>
       </c>
       <c r="E136" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -46802,13 +44647,13 @@
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="D137" s="2">
         <v>43920</v>
       </c>
       <c r="E137" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -46819,13 +44664,13 @@
         <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
       <c r="D138" s="2">
         <v>43920</v>
       </c>
       <c r="E138" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -46836,13 +44681,13 @@
         <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="D139" s="2">
         <v>43920</v>
       </c>
       <c r="E139" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -46853,13 +44698,13 @@
         <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>375</v>
+        <v>276</v>
       </c>
       <c r="D140" s="2">
         <v>43920</v>
       </c>
       <c r="E140" t="s">
-        <v>375</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -46870,13 +44715,13 @@
         <v>18</v>
       </c>
       <c r="C141" t="s">
-        <v>376</v>
+        <v>277</v>
       </c>
       <c r="D141" s="2">
         <v>43920</v>
       </c>
       <c r="E141" t="s">
-        <v>376</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -46887,13 +44732,13 @@
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="D142" s="2">
         <v>43921</v>
       </c>
       <c r="E142" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -46904,13 +44749,13 @@
         <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="D143" s="2">
         <v>43921</v>
       </c>
       <c r="E143" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -46921,13 +44766,13 @@
         <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="D144" s="2">
         <v>43921</v>
       </c>
       <c r="E144" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -46938,13 +44783,13 @@
         <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>380</v>
+        <v>281</v>
       </c>
       <c r="D145" s="2">
         <v>43921</v>
       </c>
       <c r="E145" t="s">
-        <v>380</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -46955,13 +44800,13 @@
         <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>381</v>
+        <v>282</v>
       </c>
       <c r="D146" s="2">
         <v>43921</v>
       </c>
       <c r="E146" t="s">
-        <v>381</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -46972,13 +44817,13 @@
         <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>382</v>
+        <v>283</v>
       </c>
       <c r="D147" s="2">
         <v>43921</v>
       </c>
       <c r="E147" t="s">
-        <v>382</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -46989,13 +44834,13 @@
         <v>18</v>
       </c>
       <c r="C148" t="s">
-        <v>383</v>
+        <v>284</v>
       </c>
       <c r="D148" s="2">
         <v>43921</v>
       </c>
       <c r="E148" t="s">
-        <v>383</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -47006,13 +44851,13 @@
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>384</v>
+        <v>285</v>
       </c>
       <c r="D149" s="2">
         <v>43922</v>
       </c>
       <c r="E149" t="s">
-        <v>384</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -47023,13 +44868,13 @@
         <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="D150" s="2">
         <v>43922</v>
       </c>
       <c r="E150" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -47040,13 +44885,13 @@
         <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>380</v>
+        <v>281</v>
       </c>
       <c r="D151" s="2">
         <v>43922</v>
       </c>
       <c r="E151" t="s">
-        <v>380</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -47057,13 +44902,13 @@
         <v>14</v>
       </c>
       <c r="C152" t="s">
-        <v>385</v>
+        <v>286</v>
       </c>
       <c r="D152" s="2">
         <v>43922</v>
       </c>
       <c r="E152" t="s">
-        <v>385</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -47074,13 +44919,13 @@
         <v>17</v>
       </c>
       <c r="C153" t="s">
-        <v>386</v>
+        <v>287</v>
       </c>
       <c r="D153" s="2">
         <v>43922</v>
       </c>
       <c r="E153" t="s">
-        <v>386</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -47091,13 +44936,13 @@
         <v>18</v>
       </c>
       <c r="C154" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="D154" s="2">
         <v>43922</v>
       </c>
       <c r="E154" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -47108,13 +44953,13 @@
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="D155" s="2">
         <v>43923</v>
       </c>
       <c r="E155" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -47125,13 +44970,13 @@
         <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="D156" s="2">
         <v>43923</v>
       </c>
       <c r="E156" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -47142,13 +44987,13 @@
         <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
       <c r="D157" s="2">
         <v>43923</v>
       </c>
       <c r="E157" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -47159,13 +45004,13 @@
         <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>391</v>
+        <v>292</v>
       </c>
       <c r="D158" s="2">
         <v>43923</v>
       </c>
       <c r="E158" t="s">
-        <v>391</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -47176,13 +45021,13 @@
         <v>17</v>
       </c>
       <c r="C159" t="s">
-        <v>392</v>
+        <v>293</v>
       </c>
       <c r="D159" s="2">
         <v>43923</v>
       </c>
       <c r="E159" t="s">
-        <v>392</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -47193,13 +45038,13 @@
         <v>18</v>
       </c>
       <c r="C160" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="D160" s="2">
         <v>43923</v>
       </c>
       <c r="E160" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -47210,13 +45055,13 @@
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>393</v>
+        <v>294</v>
       </c>
       <c r="D161" s="2">
         <v>43924</v>
       </c>
       <c r="E161" t="s">
-        <v>421</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -47227,13 +45072,13 @@
         <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="D162" s="2">
         <v>43924</v>
       </c>
       <c r="E162" t="s">
-        <v>421</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -47244,13 +45089,13 @@
         <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
       <c r="D163" s="2">
         <v>43924</v>
       </c>
       <c r="E163" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -47261,13 +45106,13 @@
         <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>396</v>
+        <v>297</v>
       </c>
       <c r="D164" s="2">
         <v>43924</v>
       </c>
       <c r="E164" t="s">
-        <v>396</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -47278,13 +45123,13 @@
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
       <c r="D165" s="2">
         <v>43924</v>
       </c>
       <c r="E165" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -47295,13 +45140,13 @@
         <v>17</v>
       </c>
       <c r="C166" t="s">
-        <v>398</v>
+        <v>299</v>
       </c>
       <c r="D166" s="2">
         <v>43924</v>
       </c>
       <c r="E166" t="s">
-        <v>398</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -47312,13 +45157,13 @@
         <v>18</v>
       </c>
       <c r="C167" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="D167" s="2">
         <v>43924</v>
       </c>
       <c r="E167" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -47336,13 +45181,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:3">
